--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.48532269749461626</v>
+        <v>0.48532270107345615</v>
       </c>
       <c r="C2">
-        <v>1.5990168041246062</v>
+        <v>1.5990168001056886</v>
       </c>
       <c r="D2">
-        <v>2.7636406884920106</v>
+        <v>2.7636406780816243</v>
       </c>
       <c r="E2">
-        <v>4.0464939471186359</v>
+        <v>4.0464939424336857</v>
       </c>
       <c r="F2">
-        <v>1.2145492550948167</v>
+        <v>1.214549252211234</v>
       </c>
       <c r="G2">
-        <v>0.34721673851848467</v>
+        <v>0.34721673663283853</v>
       </c>
       <c r="H2">
-        <v>1.0626630432711144</v>
+        <v>1.0626630386489795</v>
       </c>
       <c r="I2">
-        <v>1.623309460848692</v>
+        <v>1.6233094607229628</v>
       </c>
       <c r="J2">
-        <v>2.9088658455804222</v>
+        <v>2.908865835539618</v>
       </c>
       <c r="K2">
-        <v>0.80843855546830912</v>
+        <v>0.80843855291335398</v>
       </c>
       <c r="L2">
-        <v>0.76460382033599572</v>
+        <v>0.76460381509654018</v>
       </c>
       <c r="M2">
-        <v>-1.4096499462326721</v>
+        <v>-1.4096499455511118</v>
       </c>
       <c r="N2">
-        <v>1.9017206012202359</v>
+        <v>1.9017205989160555</v>
       </c>
       <c r="O2">
-        <v>1.6922177006461019</v>
+        <v>1.6922176934678346</v>
       </c>
       <c r="P2">
-        <v>2.3990102789072689</v>
+        <v>2.3990102804027758</v>
       </c>
       <c r="Q2">
-        <v>-7.3627033943901549E-2</v>
+        <v>-7.3627037750614827E-2</v>
       </c>
       <c r="R2">
-        <v>-1.1077790502886637</v>
+        <v>-1.1077790549849604</v>
       </c>
       <c r="S2">
-        <v>3.7226961298171464</v>
+        <v>3.7226961303404527</v>
       </c>
       <c r="T2">
-        <v>3.2234033187574664</v>
+        <v>3.223403322583879</v>
       </c>
       <c r="U2">
-        <v>-0.32060149202144533</v>
+        <v>-0.32060149742429939</v>
       </c>
       <c r="V2">
-        <v>0.98227099460678791</v>
+        <v>0.98227099241940607</v>
       </c>
       <c r="W2">
-        <v>-1.1739881834853769</v>
+        <v>-1.173988191473827</v>
       </c>
       <c r="X2">
-        <v>0.10396633758388302</v>
+        <v>0.10396633267996697</v>
       </c>
       <c r="Y2">
-        <v>3.3112977968697743</v>
+        <v>3.3112977912394688</v>
       </c>
       <c r="Z2">
-        <v>1.8582009131873862</v>
+        <v>1.8582009095205816</v>
       </c>
       <c r="AA2">
-        <v>4.090002247980971</v>
+        <v>4.0900022182892153</v>
       </c>
       <c r="AB2">
-        <v>3.5270347532006947</v>
+        <v>3.5270347414499241</v>
       </c>
       <c r="AC2">
-        <v>0.1778801408566619</v>
+        <v>0.17788013157502083</v>
       </c>
       <c r="AD2">
-        <v>5.1338708151609431</v>
+        <v>5.1338708020016943</v>
       </c>
       <c r="AE2">
-        <v>1.3490079492770304</v>
+        <v>1.3490079479737342</v>
       </c>
       <c r="AF2">
-        <v>2.1043757675271921</v>
+        <v>2.1043757609444067</v>
       </c>
       <c r="AG2">
-        <v>2.305240642657906</v>
+        <v>2.3052406284021698</v>
       </c>
       <c r="AH2">
-        <v>2.3259002813864371</v>
+        <v>2.3259002761838738</v>
       </c>
       <c r="AI2">
-        <v>4.0547363850590648</v>
+        <v>4.0547363690176681</v>
       </c>
       <c r="AJ2">
-        <v>1.9358397988148983</v>
+        <v>1.9358397895774733</v>
       </c>
       <c r="AK2">
-        <v>2.6564769485980957</v>
+        <v>2.6564769437199645</v>
       </c>
       <c r="AL2">
-        <v>-0.73264085394030976</v>
+        <v>-0.7326408607469822</v>
       </c>
       <c r="AM2">
-        <v>2.3511759461374497</v>
+        <v>2.3511759397734209</v>
       </c>
       <c r="AN2">
-        <v>2.5256237198722364</v>
+        <v>2.5256237145047966</v>
       </c>
       <c r="AO2">
-        <v>4.2743833486020986</v>
+        <v>4.2743833342897215</v>
       </c>
       <c r="AP2">
-        <v>2.5491970106011097</v>
+        <v>2.5491970050511226</v>
       </c>
       <c r="AQ2">
-        <v>-0.79900847176017864</v>
+        <v>-0.7990084825247783</v>
       </c>
       <c r="AR2">
-        <v>3.9796652617233619</v>
+        <v>3.9796652593991797</v>
       </c>
       <c r="AS2">
-        <v>4.0326830617447484</v>
+        <v>4.0326830463025694</v>
       </c>
       <c r="AT2">
-        <v>1.5855671651688834</v>
+        <v>1.585567158722178</v>
       </c>
       <c r="AU2">
-        <v>2.1517875268837687</v>
+        <v>2.1517875261183184</v>
       </c>
       <c r="AV2">
-        <v>1.9370232817530832</v>
+        <v>1.9370232595290366</v>
       </c>
       <c r="AW2">
-        <v>1.0939456872219822</v>
+        <v>1.0939456831412897</v>
       </c>
       <c r="AX2">
-        <v>3.8387432124413867</v>
+        <v>3.8387432040666898</v>
       </c>
       <c r="AY2">
-        <v>4.3725221306714044</v>
+        <v>4.3725221241632566</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.5084528291902317</v>
+        <v>1.5084528241441524</v>
       </c>
       <c r="C3">
-        <v>1.4122530425636848</v>
+        <v>1.4122530382053533</v>
       </c>
       <c r="D3">
-        <v>3.1781290710273518</v>
+        <v>3.178129064159084</v>
       </c>
       <c r="E3">
-        <v>2.9672039817640985</v>
+        <v>2.967203981788415</v>
       </c>
       <c r="F3">
-        <v>1.0916377606185648</v>
+        <v>1.0916377541669893</v>
       </c>
       <c r="G3">
-        <v>2.4343935645666845</v>
+        <v>2.4343935606241556</v>
       </c>
       <c r="H3">
-        <v>-0.6420619133125065</v>
+        <v>-0.64206191636936216</v>
       </c>
       <c r="I3">
-        <v>0.53777403893522979</v>
+        <v>0.5377740366022512</v>
       </c>
       <c r="J3">
-        <v>3.3081771423195239</v>
+        <v>3.3081771332761662</v>
       </c>
       <c r="K3">
-        <v>4.7143854793733926</v>
+        <v>4.7143854746532137</v>
       </c>
       <c r="L3">
-        <v>2.7226040771561082</v>
+        <v>2.7226040714065096</v>
       </c>
       <c r="M3">
-        <v>-7.2986337573126323E-2</v>
+        <v>-7.297933206826368E-2</v>
       </c>
       <c r="N3">
-        <v>1.3984515357068086</v>
+        <v>1.3984515320391917</v>
       </c>
       <c r="O3">
-        <v>-2.7711733447515186</v>
+        <v>-2.7711733490070953</v>
       </c>
       <c r="P3">
-        <v>2.5636582183320207</v>
+        <v>2.5636582120451958</v>
       </c>
       <c r="Q3">
-        <v>0.85663654347205942</v>
+        <v>0.8566365391492945</v>
       </c>
       <c r="R3">
-        <v>0.22827497444483938</v>
+        <v>0.2282749668256383</v>
       </c>
       <c r="S3">
-        <v>2.860345392728413</v>
+        <v>2.8603453917499673</v>
       </c>
       <c r="T3">
-        <v>3.1168229059268411</v>
+        <v>3.1168229022799836</v>
       </c>
       <c r="U3">
-        <v>1.6703844699485035</v>
+        <v>1.6703844680409246</v>
       </c>
       <c r="V3">
-        <v>1.6819054083457323</v>
+        <v>1.6819054053168965</v>
       </c>
       <c r="W3">
-        <v>-0.18884067579100211</v>
+        <v>-0.18884068398729975</v>
       </c>
       <c r="X3">
-        <v>-0.80975552642635718</v>
+        <v>-0.8097555305004549</v>
       </c>
       <c r="Y3">
-        <v>4.2038217982003667</v>
+        <v>4.2038217907073143</v>
       </c>
       <c r="Z3">
-        <v>2.2516634112904477</v>
+        <v>2.2516634078094877</v>
       </c>
       <c r="AA3">
-        <v>4.0838040642765927</v>
+        <v>4.083804065762731</v>
       </c>
       <c r="AB3">
-        <v>3.42565462033581</v>
+        <v>3.4256546112012365</v>
       </c>
       <c r="AC3">
-        <v>4.2549149777120512</v>
+        <v>4.2549149773554129</v>
       </c>
       <c r="AD3">
-        <v>4.7267855215438832</v>
+        <v>4.7267855080032124</v>
       </c>
       <c r="AE3">
-        <v>2.9566543317108707</v>
+        <v>2.9566543279054964</v>
       </c>
       <c r="AF3">
-        <v>2.602466528285055</v>
+        <v>2.6024665207776598</v>
       </c>
       <c r="AG3">
-        <v>1.511720044509806</v>
+        <v>1.5117200436483336</v>
       </c>
       <c r="AH3">
-        <v>0.94316235633209122</v>
+        <v>0.94316234383894293</v>
       </c>
       <c r="AI3">
-        <v>8.5374955579013445</v>
+        <v>8.5374955351932584</v>
       </c>
       <c r="AJ3">
-        <v>4.3651755684128108</v>
+        <v>4.3651755622459003</v>
       </c>
       <c r="AK3">
-        <v>3.0223865300342112</v>
+        <v>3.0223865263242193</v>
       </c>
       <c r="AL3">
-        <v>1.9187407978733886</v>
+        <v>1.9187407929738447</v>
       </c>
       <c r="AM3">
-        <v>2.4058668633609526</v>
+        <v>2.4058668476845453</v>
       </c>
       <c r="AN3">
-        <v>-1.6383720030416493</v>
+        <v>-1.63837201149413</v>
       </c>
       <c r="AO3">
-        <v>4.4942425824953824</v>
+        <v>4.4942425743172905</v>
       </c>
       <c r="AP3">
-        <v>0.52307328939301734</v>
+        <v>0.52307328141344611</v>
       </c>
       <c r="AQ3">
-        <v>1.8768446199540549</v>
+        <v>1.8768446137742572</v>
       </c>
       <c r="AR3">
-        <v>5.1471591680298019</v>
+        <v>5.1471591666815257</v>
       </c>
       <c r="AS3">
-        <v>3.13402771746799</v>
+        <v>3.134027703130418</v>
       </c>
       <c r="AT3">
-        <v>2.4663082769593458</v>
+        <v>2.4663082631203781</v>
       </c>
       <c r="AU3">
-        <v>1.5621302895728177</v>
+        <v>1.5621302833099557</v>
       </c>
       <c r="AV3">
-        <v>1.1347001604470637</v>
+        <v>1.1347001405978119</v>
       </c>
       <c r="AW3">
-        <v>1.1363035435398761</v>
+        <v>1.1363035278345641</v>
       </c>
       <c r="AX3">
-        <v>2.4044157071781593</v>
+        <v>2.404415694200039</v>
       </c>
       <c r="AY3">
-        <v>5.1071351102536182</v>
+        <v>5.1071351070923132</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.48532270107345615</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5990168001056886</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.7636406780816243</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.0464939424336857</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.214549252211234</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.34721673663283853</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.0626630386489795</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6233094607229628</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.908865835539618</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.80843855291335398</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.76460381509654018</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.4096499455511118</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.9017205989160555</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.6922176934678346</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.3990102804027758</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-7.3627037750614827E-2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.1077790549849604</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.7226961303404527</v>
+        <v>2.2783814722425335</v>
       </c>
       <c r="T2">
         <v>3.223403322583879</v>
@@ -588,55 +477,55 @@
         <v>1.8582009095205816</v>
       </c>
       <c r="AA2">
-        <v>4.0900022182892153</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.5270347414499241</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.17788013157502083</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.1338708020016943</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.3490079479737342</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.1043757609444067</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.3052406284021698</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.3259002761838738</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.0547363690176681</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.9358397895774733</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.6564769437199645</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.7326408607469822</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.3511759397734209</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.5256237145047966</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.2743833342897215</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5491970050511226</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.7990084825247783</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.9796652593991797</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.5084528241441524</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.4122530382053533</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.178129064159084</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.967203981788415</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0916377541669893</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.4343935606241556</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.64206191636936216</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5377740366022512</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.3081771332761662</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.7143854746532137</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.7226040714065096</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-7.297933206826368E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.3984515320391917</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.7711733490070953</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.5636582120451958</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8566365391492945</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.2282749668256383</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.8603453917499673</v>
@@ -743,55 +629,55 @@
         <v>2.2516634078094877</v>
       </c>
       <c r="AA3">
-        <v>4.083804065762731</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.4256546112012365</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.2549149773554129</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.7267855080032124</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.9566543279054964</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.6024665207776598</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.5117200436483336</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.94316234383894293</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.5374955351932584</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.3651755622459003</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.0223865263242193</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.9187407929738447</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.4058668476845453</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.63837201149413</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.4942425743172905</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.52307328141344611</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.8768446137742572</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.1471591666815257</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.48532269749461626</v>
-      </c>
       <c r="C2">
-        <v>1.0723951800967761</v>
-      </c>
-      <c r="D2">
-        <v>2.7636406884920106</v>
+        <v>-1.1077790549849604</v>
       </c>
       <c r="E2">
-        <v>4.0464939471186359</v>
+        <v>-0.7990084825247783</v>
       </c>
       <c r="F2">
         <v>1.2145492550948167</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.5084528291902317</v>
+        <v>-1.5242729628328515</v>
       </c>
       <c r="C3">
-        <v>1.4122530425636848</v>
+        <v>0.2282749668256383</v>
       </c>
       <c r="D3">
-        <v>3.1781290710273518</v>
+        <v>-1.3531415117016905</v>
       </c>
       <c r="E3">
-        <v>2.9672039817640985</v>
+        <v>1.9881402143597988</v>
       </c>
       <c r="F3">
         <v>1.0916377606185648</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.48532269749461626</v>
-      </c>
-      <c r="C2">
-        <v>1.0723951800967761</v>
+        <v>1.7373715583276339</v>
       </c>
       <c r="D2">
-        <v>2.7636406884920106</v>
-      </c>
-      <c r="E2">
-        <v>4.0464939471186359</v>
+        <v>2.3511759397734209</v>
       </c>
       <c r="F2">
         <v>1.2145492550948167</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.5084528291902317</v>
+        <v>1.3984515320391917</v>
       </c>
       <c r="C3">
-        <v>1.4122530425636848</v>
+        <v>-1.5242729628328515</v>
       </c>
       <c r="D3">
-        <v>3.1781290710273518</v>
+        <v>2.4058668476845453</v>
       </c>
       <c r="E3">
-        <v>4.2613212483768548</v>
+        <v>-1.3531415117016905</v>
       </c>
       <c r="F3">
         <v>1.0916377606185648</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.48532270107345615</v>
+      </c>
+      <c r="C2">
+        <v>1.0723951761114621</v>
+      </c>
+      <c r="D2">
+        <v>2.7636406780816243</v>
+      </c>
+      <c r="E2">
+        <v>4.0464939424336857</v>
+      </c>
+      <c r="F2">
+        <v>1.214549252211234</v>
+      </c>
+      <c r="G2">
+        <v>1.1156424786346131</v>
+      </c>
+      <c r="H2">
+        <v>1.0626630386489795</v>
+      </c>
+      <c r="I2">
+        <v>2.3726957397442603</v>
+      </c>
+      <c r="J2">
+        <v>2.908865835539618</v>
+      </c>
+      <c r="K2">
+        <v>0.80843855291335398</v>
+      </c>
+      <c r="L2">
+        <v>0.99118460447051004</v>
+      </c>
+      <c r="M2">
+        <v>-1.8954553000940132E-2</v>
+      </c>
+      <c r="N2">
         <v>1.7373715583276339</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.720895888397362</v>
+      </c>
+      <c r="Q2">
+        <v>-7.3627037750614827E-2</v>
+      </c>
+      <c r="R2">
+        <v>-1.1077790549849604</v>
+      </c>
+      <c r="T2">
+        <v>2.578787959607622</v>
+      </c>
+      <c r="U2">
+        <v>-0.32060149742429939</v>
+      </c>
+      <c r="V2">
+        <v>1.5335281390134314</v>
+      </c>
+      <c r="W2">
+        <v>-1.173988191473827</v>
+      </c>
+      <c r="X2">
+        <v>0.10396633267996697</v>
+      </c>
+      <c r="Y2">
+        <v>3.3112977912394688</v>
+      </c>
+      <c r="Z2">
+        <v>1.8582009095205816</v>
+      </c>
+      <c r="AA2">
+        <v>4.0900022182892153</v>
+      </c>
+      <c r="AB2">
+        <v>3.5270347414499241</v>
+      </c>
+      <c r="AC2">
+        <v>0.17788013157502083</v>
+      </c>
+      <c r="AD2">
+        <v>5.1338708020016943</v>
+      </c>
+      <c r="AE2">
+        <v>1.3490079479737342</v>
+      </c>
+      <c r="AF2">
+        <v>2.1043757609444067</v>
+      </c>
+      <c r="AG2">
+        <v>2.3052406284021698</v>
+      </c>
+      <c r="AH2">
+        <v>2.3259002761838738</v>
+      </c>
+      <c r="AI2">
+        <v>4.0547363690176681</v>
+      </c>
+      <c r="AJ2">
+        <v>1.9358397895774733</v>
+      </c>
+      <c r="AK2">
+        <v>2.6564769437199645</v>
+      </c>
+      <c r="AL2">
+        <v>-0.7326408607469822</v>
+      </c>
+      <c r="AM2">
         <v>2.3511759397734209</v>
       </c>
-      <c r="F2">
-        <v>1.2145492550948167</v>
-      </c>
-      <c r="G2">
-        <v>1.1156424786168304</v>
-      </c>
-      <c r="H2">
-        <v>1.0626630432711144</v>
-      </c>
-      <c r="I2">
-        <v>2.372695737332986</v>
-      </c>
-      <c r="J2">
-        <v>2.9088658455804222</v>
-      </c>
-      <c r="K2">
-        <v>0.80843855546830912</v>
-      </c>
-      <c r="L2">
-        <v>0.99118461278888592</v>
-      </c>
-      <c r="M2">
-        <v>-1.8954554436427587E-2</v>
-      </c>
-      <c r="N2">
-        <v>1.7373715625268928</v>
-      </c>
-      <c r="P2">
-        <v>2.7208958890019446</v>
-      </c>
-      <c r="Q2">
-        <v>-7.3627033943901549E-2</v>
-      </c>
-      <c r="R2">
-        <v>-1.1077790502886637</v>
-      </c>
-      <c r="T2">
-        <v>2.5787879569470999</v>
-      </c>
-      <c r="U2">
-        <v>-0.32060149202144533</v>
-      </c>
-      <c r="V2">
-        <v>1.5335281428473972</v>
-      </c>
-      <c r="W2">
-        <v>-1.1739881834853769</v>
-      </c>
-      <c r="X2">
-        <v>0.10396633758388302</v>
-      </c>
-      <c r="Y2">
-        <v>3.3112977968697743</v>
-      </c>
-      <c r="Z2">
-        <v>1.8582009131873862</v>
-      </c>
-      <c r="AA2">
-        <v>4.090002247980971</v>
-      </c>
-      <c r="AB2">
-        <v>3.5270347532006947</v>
-      </c>
-      <c r="AC2">
-        <v>0.1778801408566619</v>
-      </c>
-      <c r="AD2">
-        <v>5.1338708151609431</v>
-      </c>
-      <c r="AE2">
-        <v>1.3490079492770304</v>
-      </c>
-      <c r="AF2">
-        <v>2.1043757675271921</v>
-      </c>
-      <c r="AG2">
-        <v>2.305240642657906</v>
-      </c>
-      <c r="AH2">
-        <v>2.3259002813864371</v>
-      </c>
-      <c r="AI2">
-        <v>4.0547363850590648</v>
-      </c>
-      <c r="AJ2">
-        <v>1.9358397988148983</v>
-      </c>
-      <c r="AK2">
-        <v>2.6564769485980957</v>
-      </c>
-      <c r="AL2">
-        <v>-0.73264085394030976</v>
-      </c>
-      <c r="AM2">
-        <v>2.3511759461374497</v>
-      </c>
       <c r="AO2">
-        <v>4.2743833486020986</v>
+        <v>4.2743833342897215</v>
       </c>
       <c r="AP2">
-        <v>2.9461348299603922</v>
+        <v>2.946134825128139</v>
       </c>
       <c r="AQ2">
-        <v>-0.79900847176017864</v>
+        <v>-0.7990084825247783</v>
       </c>
       <c r="AR2">
-        <v>3.9796652617233619</v>
+        <v>3.9796652593991797</v>
       </c>
       <c r="AS2">
-        <v>4.0326830617447484</v>
+        <v>4.0326830463025694</v>
       </c>
       <c r="AT2">
-        <v>1.5855671651688834</v>
+        <v>1.585567158722178</v>
       </c>
       <c r="AU2">
-        <v>1.0766859847043317</v>
+        <v>1.0766859810599771</v>
       </c>
       <c r="AV2">
-        <v>1.9370232817530832</v>
+        <v>1.9370232595290366</v>
       </c>
       <c r="AW2">
-        <v>1.0939456872219822</v>
+        <v>1.0939456831412897</v>
       </c>
       <c r="AX2">
-        <v>3.8387432124413867</v>
+        <v>3.8387432040666898</v>
       </c>
       <c r="AY2">
-        <v>4.3725221306714044</v>
+        <v>4.3725221241632566</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.5084528241441524</v>
+      </c>
+      <c r="C3">
+        <v>1.4122530382053533</v>
+      </c>
+      <c r="D3">
+        <v>3.178129064159084</v>
+      </c>
+      <c r="E3">
+        <v>4.2613212485008534</v>
+      </c>
+      <c r="F3">
+        <v>1.0916377541669893</v>
+      </c>
+      <c r="G3">
+        <v>2.4343935606241556</v>
+      </c>
+      <c r="H3">
+        <v>-0.64206191636936216</v>
+      </c>
+      <c r="I3">
+        <v>0.5377740366022512</v>
+      </c>
+      <c r="J3">
+        <v>3.3081771332761662</v>
+      </c>
+      <c r="K3">
+        <v>3.9687481250315639</v>
+      </c>
+      <c r="L3">
+        <v>2.7226040714065096</v>
+      </c>
+      <c r="M3">
+        <v>-0.8644649759827665</v>
+      </c>
+      <c r="N3">
         <v>1.3984515320391917</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-1.5242729628328515</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.5636582120451958</v>
+      </c>
+      <c r="Q3">
+        <v>0.8566365391492945</v>
+      </c>
+      <c r="R3">
+        <v>0.2282749668256383</v>
+      </c>
+      <c r="S3">
+        <v>2.8603453917499673</v>
+      </c>
+      <c r="T3">
+        <v>3.1168229022799836</v>
+      </c>
+      <c r="U3">
+        <v>1.6703844680409246</v>
+      </c>
+      <c r="V3">
+        <v>1.9967815666707851</v>
+      </c>
+      <c r="W3">
+        <v>-0.18884068398729975</v>
+      </c>
+      <c r="X3">
+        <v>-0.8097555305004549</v>
+      </c>
+      <c r="Y3">
+        <v>4.2038217907073143</v>
+      </c>
+      <c r="Z3">
+        <v>2.2516634078094877</v>
+      </c>
+      <c r="AA3">
+        <v>4.083804065762731</v>
+      </c>
+      <c r="AB3">
+        <v>3.4256546112012365</v>
+      </c>
+      <c r="AC3">
+        <v>4.2549149773554129</v>
+      </c>
+      <c r="AD3">
+        <v>4.7267855080032124</v>
+      </c>
+      <c r="AE3">
+        <v>2.9566543279054964</v>
+      </c>
+      <c r="AF3">
+        <v>2.6024665207776598</v>
+      </c>
+      <c r="AG3">
+        <v>1.5117200436483336</v>
+      </c>
+      <c r="AH3">
+        <v>0.94316234383894293</v>
+      </c>
+      <c r="AI3">
+        <v>3.7506242452493552</v>
+      </c>
+      <c r="AJ3">
+        <v>4.3651755622459003</v>
+      </c>
+      <c r="AK3">
+        <v>3.0223865263242193</v>
+      </c>
+      <c r="AL3">
+        <v>1.9187407929738447</v>
+      </c>
+      <c r="AM3">
         <v>2.4058668476845453</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-1.3531415117016905</v>
       </c>
-      <c r="F3">
-        <v>1.0916377606185648</v>
-      </c>
-      <c r="G3">
-        <v>2.4343935645666845</v>
-      </c>
-      <c r="H3">
-        <v>-0.6420619133125065</v>
-      </c>
-      <c r="I3">
-        <v>0.53777403893522979</v>
-      </c>
-      <c r="J3">
-        <v>3.3081771423195239</v>
-      </c>
-      <c r="K3">
-        <v>3.9687481311524038</v>
-      </c>
-      <c r="L3">
-        <v>2.7226040771561082</v>
-      </c>
-      <c r="M3">
-        <v>-0.86446930100792829</v>
-      </c>
-      <c r="N3">
-        <v>1.3984515357068086</v>
-      </c>
-      <c r="O3">
-        <v>-1.52427295336732</v>
-      </c>
-      <c r="P3">
-        <v>2.5636582183320207</v>
-      </c>
-      <c r="Q3">
-        <v>0.85663654347205942</v>
-      </c>
-      <c r="R3">
-        <v>0.22827497444483938</v>
-      </c>
-      <c r="S3">
-        <v>2.860345392728413</v>
-      </c>
-      <c r="T3">
-        <v>3.1168229059268411</v>
-      </c>
-      <c r="U3">
-        <v>1.6703844699485035</v>
-      </c>
-      <c r="V3">
-        <v>1.9967815678537097</v>
-      </c>
-      <c r="W3">
-        <v>-0.18884067579100211</v>
-      </c>
-      <c r="X3">
-        <v>-0.80975552642635718</v>
-      </c>
-      <c r="Y3">
-        <v>4.2038217982003667</v>
-      </c>
-      <c r="Z3">
-        <v>2.2516634112904477</v>
-      </c>
-      <c r="AA3">
-        <v>4.0838040642765927</v>
-      </c>
-      <c r="AB3">
-        <v>3.42565462033581</v>
-      </c>
-      <c r="AC3">
-        <v>4.2549149777120512</v>
-      </c>
-      <c r="AD3">
-        <v>4.7267855215438832</v>
-      </c>
-      <c r="AE3">
-        <v>2.9566543317108707</v>
-      </c>
-      <c r="AF3">
-        <v>2.602466528285055</v>
-      </c>
-      <c r="AG3">
-        <v>1.511720044509806</v>
-      </c>
-      <c r="AH3">
-        <v>0.94316235633209122</v>
-      </c>
-      <c r="AI3">
-        <v>3.7506242620207901</v>
-      </c>
-      <c r="AJ3">
-        <v>4.3651755684128108</v>
-      </c>
-      <c r="AK3">
-        <v>3.0223865300342112</v>
-      </c>
-      <c r="AL3">
-        <v>1.9187407978733886</v>
-      </c>
-      <c r="AM3">
-        <v>2.4058668633609526</v>
-      </c>
-      <c r="AN3">
-        <v>-1.3531415016242498</v>
-      </c>
       <c r="AO3">
-        <v>4.4942425824953824</v>
+        <v>4.4942425743172905</v>
       </c>
       <c r="AP3">
-        <v>0.52307328939301734</v>
+        <v>0.52307328141344611</v>
       </c>
       <c r="AQ3">
-        <v>1.9881402166663276</v>
+        <v>1.9881402143597988</v>
       </c>
       <c r="AR3">
-        <v>5.1471591680298019</v>
+        <v>5.1471591666815257</v>
       </c>
       <c r="AS3">
-        <v>3.13402771746799</v>
+        <v>3.134027703130418</v>
       </c>
       <c r="AT3">
-        <v>2.4663082769593458</v>
+        <v>2.4663082631203781</v>
       </c>
       <c r="AU3">
-        <v>1.7588940589817827</v>
+        <v>1.7588940586620787</v>
       </c>
       <c r="AV3">
-        <v>1.1347001604470637</v>
+        <v>1.1347001405978119</v>
       </c>
       <c r="AW3">
-        <v>1.1363035435398761</v>
+        <v>1.1363035278345641</v>
       </c>
       <c r="AX3">
-        <v>2.4044157071781593</v>
+        <v>2.404415694200039</v>
       </c>
       <c r="AY3">
-        <v>5.1071351102536182</v>
+        <v>5.1071351070923132</v>
       </c>
     </row>
   </sheetData>
